--- a/test/org/hy/common/report/junit/readHorizontal/JU_ReadHorizontal.xlsx
+++ b/test/org/hy/common/report/junit/readHorizontal/JU_ReadHorizontal.xlsx
@@ -33,14 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流动比：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,15 +41,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>:month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:finance.time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:finance.rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:finance.pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:finance.income</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,12 +464,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -477,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -485,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -493,12 +494,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -506,10 +507,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
